--- a/HEBCard/Documentos/Diseño/ABCSocios/DDM - Enabling_ABCSocios_HEBCard.xlsx
+++ b/HEBCard/Documentos/Diseño/ABCSocios/DDM - Enabling_ABCSocios_HEBCard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB\HEBCard\Documentos\Diseño\ABCSocios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\HEB-HUB\HEBCard\Documentos\Diseño\ABCSocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3145B-BEFE-4529-A4E5-3E0EED09CC9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DD8E8-D2DD-4FD0-AEE9-8DCA2303419F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="729" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="729" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora_Cambios" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="105">
   <si>
     <t>Target Specs</t>
   </si>
@@ -1326,6 +1326,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="44" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1365,32 +1392,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="21" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="21" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1427,24 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="21" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="22" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2263,10 +2263,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="116"/>
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2281,10 +2281,10 @@
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="118" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="32" t="s">
@@ -2297,45 +2297,45 @@
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="34"/>
-      <c r="M3" s="103" t="s">
+      <c r="M3" s="112" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="M4" s="104"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="M4" s="113"/>
       <c r="N4" s="44"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
-      <c r="M5" s="104"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="44"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
-      <c r="M6" s="105"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+      <c r="M6" s="114"/>
       <c r="N6" s="45"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2349,15 +2349,15 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="E8" s="110" t="s">
+      <c r="C8" s="98"/>
+      <c r="E8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="118"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="105"/>
       <c r="I8" s="9" t="s">
         <v>36</v>
       </c>
@@ -2652,14 +2652,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E4:G6"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="I4:K6"/>
     <mergeCell ref="M3:M6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2670,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4223,11 +4223,11 @@
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
       <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
@@ -4248,13 +4248,13 @@
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="124" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="13" t="s">
@@ -4270,79 +4270,79 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="108"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="131"/>
-      <c r="H8" s="110" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="119"/>
+      <c r="H8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="118"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="105"/>
       <c r="L8" s="9" t="s">
         <v>7</v>
       </c>
@@ -4409,25 +4409,25 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
@@ -5080,25 +5080,25 @@
       <c r="T26" s="29"/>
     </row>
     <row r="27" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="130"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="136"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
@@ -8355,6 +8355,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="L4:T6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H8:J8"/>
@@ -8363,12 +8369,6 @@
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="B4:F6"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -8378,10 +8378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:T178"/>
+  <dimension ref="B1:T179"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9933,11 +9933,11 @@
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
       <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9958,13 +9958,13 @@
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="124" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="13" t="s">
@@ -9980,79 +9980,79 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="108"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="131"/>
-      <c r="H8" s="110" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="119"/>
+      <c r="H8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="118"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="105"/>
       <c r="L8" s="9" t="s">
         <v>7</v>
       </c>
@@ -10119,25 +10119,25 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
@@ -10180,63 +10180,75 @@
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
     </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="119" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="127"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="55"/>
-      <c r="C13" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="80">
-        <v>100</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-    </row>
-    <row r="14" spans="2:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="133"/>
+    </row>
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>93</v>
+      <c r="D14" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="56" t="s">
         <v>86</v>
@@ -10245,27 +10257,27 @@
         <v>100</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="95"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
       <c r="T14" s="92"/>
     </row>
-    <row r="15" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="55"/>
       <c r="C15" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="56" t="s">
         <v>86</v>
@@ -10274,18 +10286,18 @@
         <v>100</v>
       </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="95"/>
       <c r="T15" s="92"/>
     </row>
     <row r="16" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10294,7 +10306,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>86</v>
@@ -10302,12 +10314,10 @@
       <c r="F16" s="80">
         <v>100</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="74"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
@@ -10319,24 +10329,36 @@
       <c r="S16" s="92"/>
       <c r="T16" s="92"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="55"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="53"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="C17" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="80">
+        <v>100</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="55"/>
@@ -13397,22 +13419,41 @@
       <c r="S178" s="29"/>
       <c r="T178" s="29"/>
     </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B179" s="55"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="53"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="29"/>
+      <c r="J179" s="29"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="54"/>
+      <c r="O179" s="52"/>
+      <c r="P179" s="50"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="29"/>
+      <c r="S179" s="29"/>
+      <c r="T179" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="B4:F6"/>
     <mergeCell ref="L4:T6"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="L13:T13"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:T10"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="B4:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -14977,11 +15018,11 @@
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
       <c r="L2" s="9" t="s">
         <v>0</v>
       </c>
@@ -15002,13 +15043,13 @@
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="124" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="13" t="s">
@@ -15024,79 +15065,79 @@
       <c r="T3" s="16"/>
     </row>
     <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="108"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="112"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="131"/>
-      <c r="H8" s="110" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="119"/>
+      <c r="H8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="118"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="105"/>
       <c r="L8" s="9" t="s">
         <v>7</v>
       </c>
@@ -15163,25 +15204,25 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
@@ -15832,25 +15873,25 @@
       <c r="T26" s="29"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="127"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="133"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
@@ -19050,6 +19091,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="B4:F6"/>
     <mergeCell ref="L4:T6"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="H27:J27"/>
@@ -19059,11 +19105,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="L10:T10"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="B4:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -19072,6 +19113,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BB5F6324779334E935E1074744BDE13" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7772d656664d1372662c8559866e9138">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84d24c2467e79a5b957f305a830827c0">
     <xsd:element name="properties">
@@ -19120,32 +19176,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC957CD-6284-4C47-B6FF-C82C92886FE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DD8CB0-4BA3-43ED-9662-73BB4961EF09}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19165,9 +19199,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DD8CB0-4BA3-43ED-9662-73BB4961EF09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC957CD-6284-4C47-B6FF-C82C92886FE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>